--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Ashraqat Ahmed Abd elrazak Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنة تامر محمد شوقي الإختيار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amena Tamer Mohamed Shawky Elekhtyar</x:t>
   </x:si>
   <x:si>
     <x:t>1240029</x:t>
@@ -788,7 +797,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1088,7 +1097,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T73"/>
+  <x:dimension ref="A1:T74"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1531,7 +1540,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6309870023</x:v>
+        <x:v>45923.5056416667</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1563,7 +1572,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6750236458</x:v>
+        <x:v>45912.6309870023</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1595,7 +1604,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6656665856</x:v>
+        <x:v>45907.6750236458</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1627,7 +1636,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6335916319</x:v>
+        <x:v>45906.6656665856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1659,7 +1668,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6787040857</x:v>
+        <x:v>45912.6335916319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1691,7 +1700,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45906.6787040857</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1723,7 +1732,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6683668981</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1755,7 +1764,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6308471875</x:v>
+        <x:v>45907.6683668981</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1787,7 +1796,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45912.6308471875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1819,7 +1828,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4585958333</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1851,7 +1860,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45909.4585958333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1883,7 +1892,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1915,7 +1924,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6313366551</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1947,7 +1956,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45912.6313366551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1975,9 +1984,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2000,16 +2011,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.4197134607</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2041,7 +2050,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.2779576042</x:v>
+        <x:v>45907.4197134607</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2073,7 +2082,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45912.2779576042</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2105,7 +2114,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.6433989931</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2137,7 +2146,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4193797106</x:v>
+        <x:v>45912.6433989931</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2169,7 +2178,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45907.4193797106</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2201,7 +2210,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2233,7 +2242,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2265,7 +2274,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2297,7 +2306,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2329,7 +2338,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2361,7 +2370,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2393,7 +2402,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2425,7 +2434,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2457,7 +2466,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2489,7 +2498,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2521,7 +2530,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.6312601505</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2553,7 +2562,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.2729993056</x:v>
+        <x:v>45912.6312601505</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2585,7 +2594,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45912.2729993056</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2617,7 +2626,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45912.2783285532</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2649,7 +2658,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2681,7 +2690,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2713,7 +2722,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2745,7 +2754,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.643453669</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2777,7 +2786,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45912.643453669</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2809,7 +2818,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2841,7 +2850,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2873,7 +2882,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2905,7 +2914,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2937,7 +2946,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2969,7 +2978,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3001,7 +3010,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3033,7 +3042,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3065,7 +3074,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3097,7 +3106,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3129,7 +3138,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3161,7 +3170,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3193,7 +3202,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3225,7 +3234,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3257,7 +3266,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45912.277387037</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3289,7 +3298,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3321,7 +3330,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3353,7 +3362,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3385,7 +3394,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3413,9 +3422,11 @@
       <x:c r="C72" s="2" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D72" s="2" t="s"/>
+      <x:c r="D72" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
       <x:c r="E72" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45912.6433409375</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3438,16 +3449,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C73" s="2" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="D73" s="2" t="s">
         <x:v>218</x:v>
       </x:c>
+      <x:c r="D73" s="2" t="s"/>
       <x:c r="E73" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3464,6 +3473,38 @@
       <x:c r="R73" s="2" t="s"/>
       <x:c r="S73" s="2" t="s"/>
       <x:c r="T73" s="2" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:20">
+      <x:c r="A74" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D74" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E74" s="3">
+        <x:v>45912.2732961458</x:v>
+      </x:c>
+      <x:c r="F74" s="2" t="s"/>
+      <x:c r="G74" s="2" t="s"/>
+      <x:c r="H74" s="2" t="s"/>
+      <x:c r="I74" s="2" t="s"/>
+      <x:c r="J74" s="2" t="s"/>
+      <x:c r="K74" s="2" t="s"/>
+      <x:c r="L74" s="2" t="s"/>
+      <x:c r="M74" s="2" t="s"/>
+      <x:c r="N74" s="2" t="s"/>
+      <x:c r="O74" s="2" t="s"/>
+      <x:c r="P74" s="2" t="s"/>
+      <x:c r="Q74" s="2" t="s"/>
+      <x:c r="R74" s="2" t="s"/>
+      <x:c r="S74" s="2" t="s"/>
+      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,24 +42,6 @@
     <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
-    <x:t>3230001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أسر وليد حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aser Waled Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أندرو وليد جرجس كيرلس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Walid Girgis</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230136</x:t>
   </x:si>
   <x:si>
@@ -78,6 +60,15 @@
     <x:t>Ahmed Osama Ahmed Fathy Abdellatif</x:t>
   </x:si>
   <x:si>
+    <x:t>1240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حمدي احمد ابراهيم على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210192</x:t>
   </x:si>
   <x:si>
@@ -159,15 +150,6 @@
     <x:t>Anas Waleed Salah Eldeen Elsayed Mahmoudd</x:t>
   </x:si>
   <x:si>
-    <x:t>1210132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210212</x:t>
   </x:si>
   <x:si>
@@ -399,6 +381,15 @@
     <x:t>Omar Ahmed Abd ElRahman Ismail</x:t>
   </x:si>
   <x:si>
+    <x:t>1240101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ehab</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220264</x:t>
   </x:si>
   <x:si>
@@ -426,15 +417,6 @@
     <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240118</x:t>
   </x:si>
   <x:si>
@@ -552,6 +534,15 @@
     <x:t>Mohamed Tarek Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240264</x:t>
   </x:si>
   <x:si>
@@ -606,15 +597,6 @@
     <x:t>Mostafa Ahmed Abdelrahman Hammad</x:t>
   </x:si>
   <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240155</x:t>
   </x:si>
   <x:si>
@@ -660,6 +642,15 @@
     <x:t>Yasmin Serag Mohamed Esmat</x:t>
   </x:si>
   <x:si>
+    <x:t>1220153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin Islam Salah Abdelhameed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240162</x:t>
   </x:si>
   <x:si>
@@ -682,6 +673,12 @@
   </x:si>
   <x:si>
     <x:t>Youssef Safwat Wahba Zekry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد بدر الدين حسن</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1220,7 +1217,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6649468403</x:v>
+        <x:v>45907.4194545486</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1252,7 +1249,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4282026968</x:v>
+        <x:v>45907.664674919</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1284,7 +1281,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4194545486</x:v>
+        <x:v>45927.5674027778</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1316,7 +1313,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.664674919</x:v>
+        <x:v>45912.6430545139</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1348,7 +1345,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6430545139</x:v>
+        <x:v>45907.4212568287</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1380,7 +1377,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4212568287</x:v>
+        <x:v>45907.6646043981</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1412,7 +1409,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6646043981</x:v>
+        <x:v>45907.4206642361</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1444,7 +1441,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4206642361</x:v>
+        <x:v>45912.6312969907</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1476,7 +1473,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.6312969907</x:v>
+        <x:v>45907.6652306713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1508,7 +1505,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6652306713</x:v>
+        <x:v>45923.5056416667</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1540,7 +1537,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.5056416667</x:v>
+        <x:v>45912.6309870023</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1572,7 +1569,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6309870023</x:v>
+        <x:v>45907.6750236458</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1604,7 +1601,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6750236458</x:v>
+        <x:v>45912.6335916319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1636,7 +1633,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6656665856</x:v>
+        <x:v>45906.6787040857</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1668,7 +1665,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6335916319</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1700,7 +1697,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6787040857</x:v>
+        <x:v>45907.6683668981</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1732,7 +1729,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45912.6308471875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1764,7 +1761,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6683668981</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1796,7 +1793,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6308471875</x:v>
+        <x:v>45909.4585958333</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1828,7 +1825,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1860,7 +1857,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4585958333</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1892,7 +1889,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45912.6313366551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1924,7 +1921,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45927.4164710995</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1952,11 +1949,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45912.6313366551</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1979,16 +1974,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.4197134607</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2011,14 +2006,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45912.2779576042</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2050,7 +2047,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4197134607</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2082,7 +2079,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.2779576042</x:v>
+        <x:v>45912.6433989931</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2114,7 +2111,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.4193797106</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2146,7 +2143,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.6433989931</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2178,7 +2175,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4193797106</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2210,7 +2207,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2242,7 +2239,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2274,7 +2271,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2306,7 +2303,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2338,7 +2335,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2370,7 +2367,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2402,7 +2399,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2434,7 +2431,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45927.5643613773</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2466,7 +2463,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2498,7 +2495,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2530,7 +2527,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45912.6312601505</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2562,7 +2559,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.6312601505</x:v>
+        <x:v>45912.2783285532</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2594,7 +2591,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.2729993056</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2626,7 +2623,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2658,7 +2655,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2690,7 +2687,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2722,7 +2719,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45912.643453669</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2754,7 +2751,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2786,7 +2783,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.643453669</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2818,7 +2815,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2850,7 +2847,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2882,7 +2879,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2914,7 +2911,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45927.4940615741</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2946,7 +2943,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2978,7 +2975,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3010,7 +3007,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3042,7 +3039,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3074,7 +3071,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3106,7 +3103,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3138,7 +3135,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3170,7 +3167,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3202,7 +3199,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45912.277387037</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3234,7 +3231,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3266,7 +3263,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3298,7 +3295,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3330,7 +3327,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3362,7 +3359,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.6638493403</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3394,7 +3391,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6433409375</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3422,11 +3419,9 @@
       <x:c r="C72" s="2" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D72" s="2" t="s">
-        <x:v>216</x:v>
-      </x:c>
+      <x:c r="D72" s="2" t="s"/>
       <x:c r="E72" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3449,14 +3444,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="C73" s="2" t="s">
+      <x:c r="D73" s="2" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="D73" s="2" t="s"/>
       <x:c r="E73" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3484,11 +3481,9 @@
       <x:c r="C74" s="2" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="D74" s="2" t="s">
-        <x:v>221</x:v>
-      </x:c>
+      <x:c r="D74" s="2" t="s"/>
       <x:c r="E74" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45927.5825996528</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>

--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -300,6 +300,15 @@
     <x:t>shruok adel mohammed ali</x:t>
   </x:si>
   <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240081</x:t>
   </x:si>
   <x:si>
@@ -417,15 +426,6 @@
     <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
   </x:si>
   <x:si>
-    <x:t>1240118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240346</x:t>
   </x:si>
   <x:si>
@@ -633,6 +633,15 @@
     <x:t>Naira Mohamed Salah Eldin fathallah</x:t>
   </x:si>
   <x:si>
+    <x:t>1230127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمد رشدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mohamed Roshdy Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240388</x:t>
   </x:si>
   <x:si>
@@ -640,15 +649,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmin Serag Mohamed Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassin Islam Salah Abdelhameed</x:t>
   </x:si>
   <x:si>
     <x:t>1240162</x:t>
@@ -1217,7 +1217,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4194545486</x:v>
+        <x:v>45927.7946808218</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -2143,7 +2143,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45927.8034452199</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2175,7 +2175,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2207,7 +2207,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2239,7 +2239,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2271,7 +2271,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2303,7 +2303,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2335,7 +2335,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2367,7 +2367,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2399,7 +2399,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2431,7 +2431,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.5643613773</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2463,7 +2463,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45927.5643613773</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2495,7 +2495,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2527,7 +2527,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.6312601505</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2559,7 +2559,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45912.6312601505</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -3327,7 +3327,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45927.7252559838</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3359,7 +3359,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45927.6638493403</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>

--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
     <x:t>1240002</x:t>
@@ -794,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1094,7 +1085,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T74"/>
+  <x:dimension ref="A1:T73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1217,7 +1208,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.7946808218</x:v>
+        <x:v>45907.664674919</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1249,7 +1240,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.664674919</x:v>
+        <x:v>45927.5674027778</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1281,7 +1272,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.5674027778</x:v>
+        <x:v>45912.6430545139</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1313,7 +1304,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6430545139</x:v>
+        <x:v>45907.4212568287</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1345,7 +1336,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4212568287</x:v>
+        <x:v>45907.6646043981</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1377,7 +1368,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6646043981</x:v>
+        <x:v>45907.4206642361</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1409,7 +1400,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4206642361</x:v>
+        <x:v>45912.6312969907</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1441,7 +1432,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6312969907</x:v>
+        <x:v>45907.6652306713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1473,7 +1464,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6652306713</x:v>
+        <x:v>45923.5056416667</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1505,7 +1496,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45923.5056416667</x:v>
+        <x:v>45912.6309870023</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1537,7 +1528,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6309870023</x:v>
+        <x:v>45907.6750236458</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1569,7 +1560,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6750236458</x:v>
+        <x:v>45912.6335916319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1601,7 +1592,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.6335916319</x:v>
+        <x:v>45906.6787040857</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1633,7 +1624,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6787040857</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1665,7 +1656,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.6683668981</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1697,7 +1688,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6683668981</x:v>
+        <x:v>45912.6308471875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1729,7 +1720,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6308471875</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1761,7 +1752,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45909.4585958333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1793,7 +1784,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4585958333</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1825,7 +1816,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1857,7 +1848,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45912.6313366551</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1889,7 +1880,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6313366551</x:v>
+        <x:v>45927.4164710995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1917,11 +1908,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45927.4164710995</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1944,14 +1933,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.4197134607</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1983,7 +1974,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4197134607</x:v>
+        <x:v>45912.2779576042</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2015,7 +2006,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.2779576042</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2047,7 +2038,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45912.6433989931</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2079,7 +2070,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6433989931</x:v>
+        <x:v>45907.4193797106</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2111,7 +2102,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4193797106</x:v>
+        <x:v>45927.8034452199</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2143,7 +2134,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.8034452199</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2175,7 +2166,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2207,7 +2198,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2239,7 +2230,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2271,7 +2262,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2303,7 +2294,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2335,7 +2326,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2367,7 +2358,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2399,7 +2390,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2431,7 +2422,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45927.5643613773</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2463,7 +2454,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.5643613773</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2495,7 +2486,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2527,7 +2518,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45912.6312601505</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2559,7 +2550,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.6312601505</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2591,7 +2582,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2623,7 +2614,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2655,7 +2646,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2687,7 +2678,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.643453669</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2719,7 +2710,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.643453669</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2751,7 +2742,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2783,7 +2774,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2815,7 +2806,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2847,7 +2838,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2879,7 +2870,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2911,7 +2902,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45927.4940615741</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2943,7 +2934,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2975,7 +2966,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45927.4166222569</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3007,7 +2998,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3039,7 +3030,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3071,7 +3062,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3103,7 +3094,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3135,7 +3126,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3167,7 +3158,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45912.277387037</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3199,7 +3190,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3231,7 +3222,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3263,7 +3254,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3295,7 +3286,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.7252559838</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3327,7 +3318,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45927.7252559838</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3359,7 +3350,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6433409375</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3387,11 +3378,9 @@
       <x:c r="C71" s="2" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="D71" s="2" t="s">
-        <x:v>213</x:v>
-      </x:c>
+      <x:c r="D71" s="2" t="s"/>
       <x:c r="E71" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3414,14 +3403,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="C72" s="2" t="s">
+      <x:c r="D72" s="2" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D72" s="2" t="s"/>
       <x:c r="E72" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3449,11 +3440,9 @@
       <x:c r="C73" s="2" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D73" s="2" t="s">
-        <x:v>218</x:v>
-      </x:c>
+      <x:c r="D73" s="2" t="s"/>
       <x:c r="E73" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45927.5825996528</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3470,36 +3459,6 @@
       <x:c r="R73" s="2" t="s"/>
       <x:c r="S73" s="2" t="s"/>
       <x:c r="T73" s="2" t="s"/>
-    </x:row>
-    <x:row r="74" spans="1:20">
-      <x:c r="A74" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B74" s="2" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C74" s="2" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="D74" s="2" t="s"/>
-      <x:c r="E74" s="3">
-        <x:v>45927.5825996528</x:v>
-      </x:c>
-      <x:c r="F74" s="2" t="s"/>
-      <x:c r="G74" s="2" t="s"/>
-      <x:c r="H74" s="2" t="s"/>
-      <x:c r="I74" s="2" t="s"/>
-      <x:c r="J74" s="2" t="s"/>
-      <x:c r="K74" s="2" t="s"/>
-      <x:c r="L74" s="2" t="s"/>
-      <x:c r="M74" s="2" t="s"/>
-      <x:c r="N74" s="2" t="s"/>
-      <x:c r="O74" s="2" t="s"/>
-      <x:c r="P74" s="2" t="s"/>
-      <x:c r="Q74" s="2" t="s"/>
-      <x:c r="R74" s="2" t="s"/>
-      <x:c r="S74" s="2" t="s"/>
-      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -469,6 +469,15 @@
   </x:si>
   <x:si>
     <x:t>×  Lojain Mohamed Gad Morshedy Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارى مرقص جورج ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1240129</x:t>
@@ -785,7 +794,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1085,7 +1094,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T73"/>
+  <x:dimension ref="A1:T74"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2742,7 +2751,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45929.0673479167</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2774,7 +2783,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2806,7 +2815,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2838,7 +2847,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2870,7 +2879,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2902,7 +2911,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2934,7 +2943,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45927.4166222569</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2966,7 +2975,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2998,7 +3007,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3030,7 +3039,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3062,7 +3071,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3094,7 +3103,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3126,7 +3135,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3158,7 +3167,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3190,7 +3199,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45912.277387037</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3222,7 +3231,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3254,7 +3263,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3286,7 +3295,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45927.7252559838</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3318,7 +3327,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45927.7252559838</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3350,7 +3359,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3378,9 +3387,11 @@
       <x:c r="C71" s="2" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="D71" s="2" t="s"/>
+      <x:c r="D71" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45912.6433409375</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3403,16 +3414,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="D72" s="2" t="s">
         <x:v>215</x:v>
       </x:c>
+      <x:c r="D72" s="2" t="s"/>
       <x:c r="E72" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3440,9 +3449,11 @@
       <x:c r="C73" s="2" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D73" s="2" t="s"/>
+      <x:c r="D73" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
       <x:c r="E73" s="3">
-        <x:v>45927.5825996528</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3459,6 +3470,36 @@
       <x:c r="R73" s="2" t="s"/>
       <x:c r="S73" s="2" t="s"/>
       <x:c r="T73" s="2" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:20">
+      <x:c r="A74" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D74" s="2" t="s"/>
+      <x:c r="E74" s="3">
+        <x:v>45927.5825996528</x:v>
+      </x:c>
+      <x:c r="F74" s="2" t="s"/>
+      <x:c r="G74" s="2" t="s"/>
+      <x:c r="H74" s="2" t="s"/>
+      <x:c r="I74" s="2" t="s"/>
+      <x:c r="J74" s="2" t="s"/>
+      <x:c r="K74" s="2" t="s"/>
+      <x:c r="L74" s="2" t="s"/>
+      <x:c r="M74" s="2" t="s"/>
+      <x:c r="N74" s="2" t="s"/>
+      <x:c r="O74" s="2" t="s"/>
+      <x:c r="P74" s="2" t="s"/>
+      <x:c r="Q74" s="2" t="s"/>
+      <x:c r="R74" s="2" t="s"/>
+      <x:c r="S74" s="2" t="s"/>
+      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -469,15 +469,6 @@
   </x:si>
   <x:si>
     <x:t>×  Lojain Mohamed Gad Morshedy Omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1240129</x:t>
@@ -794,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1094,7 +1085,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T74"/>
+  <x:dimension ref="A1:T73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2751,7 +2742,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45929.0673479167</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2783,7 +2774,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2815,7 +2806,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2847,7 +2838,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2879,7 +2870,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2911,7 +2902,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2943,7 +2934,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2975,7 +2966,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45927.4166222569</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3007,7 +2998,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3039,7 +3030,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3071,7 +3062,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3103,7 +3094,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3135,7 +3126,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3167,7 +3158,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45912.277387037</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3199,7 +3190,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3231,7 +3222,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3263,7 +3254,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3295,7 +3286,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.7252559838</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3327,7 +3318,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45927.7252559838</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3359,7 +3350,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6433409375</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3387,11 +3378,9 @@
       <x:c r="C71" s="2" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="D71" s="2" t="s">
-        <x:v>213</x:v>
-      </x:c>
+      <x:c r="D71" s="2" t="s"/>
       <x:c r="E71" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3414,14 +3403,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="C72" s="2" t="s">
+      <x:c r="D72" s="2" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D72" s="2" t="s"/>
       <x:c r="E72" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3449,11 +3440,9 @@
       <x:c r="C73" s="2" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D73" s="2" t="s">
-        <x:v>218</x:v>
-      </x:c>
+      <x:c r="D73" s="2" t="s"/>
       <x:c r="E73" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45927.5825996528</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3470,36 +3459,6 @@
       <x:c r="R73" s="2" t="s"/>
       <x:c r="S73" s="2" t="s"/>
       <x:c r="T73" s="2" t="s"/>
-    </x:row>
-    <x:row r="74" spans="1:20">
-      <x:c r="A74" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B74" s="2" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C74" s="2" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="D74" s="2" t="s"/>
-      <x:c r="E74" s="3">
-        <x:v>45927.5825996528</x:v>
-      </x:c>
-      <x:c r="F74" s="2" t="s"/>
-      <x:c r="G74" s="2" t="s"/>
-      <x:c r="H74" s="2" t="s"/>
-      <x:c r="I74" s="2" t="s"/>
-      <x:c r="J74" s="2" t="s"/>
-      <x:c r="K74" s="2" t="s"/>
-      <x:c r="L74" s="2" t="s"/>
-      <x:c r="M74" s="2" t="s"/>
-      <x:c r="N74" s="2" t="s"/>
-      <x:c r="O74" s="2" t="s"/>
-      <x:c r="P74" s="2" t="s"/>
-      <x:c r="Q74" s="2" t="s"/>
-      <x:c r="R74" s="2" t="s"/>
-      <x:c r="S74" s="2" t="s"/>
-      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35654.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35654.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -243,7 +243,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1220241</x:t>
@@ -1908,7 +1911,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1933,13 +1938,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.4197134607</x:v>
@@ -1965,13 +1970,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45912.2779576042</x:v>
@@ -1997,13 +2002,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6655566319</x:v>
@@ -2029,13 +2034,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45912.6433989931</x:v>
@@ -2061,13 +2066,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.4193797106</x:v>
@@ -2093,13 +2098,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45927.8034452199</x:v>
@@ -2125,13 +2130,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45912.63106875</x:v>
@@ -2157,13 +2162,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.6654596065</x:v>
@@ -2189,13 +2194,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6650891204</x:v>
@@ -2221,13 +2226,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.6651444097</x:v>
@@ -2253,13 +2258,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.4144538194</x:v>
@@ -2285,13 +2290,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6648501968</x:v>
@@ -2317,13 +2322,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45912.2735715625</x:v>
@@ -2349,13 +2354,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45906.6653118866</x:v>
@@ -2381,13 +2386,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45912.2687282755</x:v>
@@ -2413,13 +2418,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45927.5643613773</x:v>
@@ -2445,13 +2450,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.4181934375</x:v>
@@ -2477,13 +2482,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45906.6677939815</x:v>
@@ -2509,13 +2514,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45912.6312601505</x:v>
@@ -2541,13 +2546,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45909.4153630787</x:v>
@@ -2573,13 +2578,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45912.2739263889</x:v>
@@ -2605,13 +2610,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45907.4144983796</x:v>
@@ -2637,13 +2642,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45907.6648360764</x:v>
@@ -2669,13 +2674,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45912.643453669</x:v>
@@ -2701,13 +2706,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45907.6651607639</x:v>
@@ -2733,13 +2738,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45907.6646943634</x:v>
@@ -2765,13 +2770,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
         <x:v>45912.2765343403</x:v>
@@ -2797,13 +2802,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
         <x:v>45912.6312075231</x:v>
@@ -2829,13 +2834,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
         <x:v>45912.6309122685</x:v>
@@ -2861,13 +2866,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
         <x:v>45928.651734838</x:v>
@@ -2893,13 +2898,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
         <x:v>45907.6646984606</x:v>
@@ -2925,13 +2930,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
         <x:v>45927.4166222569</x:v>
@@ -2957,13 +2962,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D58" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
         <x:v>45907.6651833681</x:v>
@@ -2989,13 +2994,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C59" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D59" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
         <x:v>45912.2971767014</x:v>
@@ -3021,13 +3026,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C60" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D60" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
         <x:v>45907.4219376505</x:v>
@@ -3053,13 +3058,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C61" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D61" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
         <x:v>45907.6658299769</x:v>
@@ -3085,13 +3090,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C62" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D62" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
         <x:v>45907.6658451389</x:v>
@@ -3117,13 +3122,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C63" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
         <x:v>45907.6658153935</x:v>
@@ -3149,13 +3154,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C64" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D64" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
         <x:v>45912.277387037</x:v>
@@ -3181,13 +3186,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C65" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D65" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
         <x:v>45907.4222440162</x:v>
@@ -3213,13 +3218,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C66" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D66" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
         <x:v>45912.6311479977</x:v>
@@ -3245,13 +3250,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B67" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C67" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D67" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
         <x:v>45906.6645776968</x:v>
@@ -3277,13 +3282,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C68" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D68" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
         <x:v>45927.7252559838</x:v>
@@ -3309,13 +3314,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B69" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C69" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
         <x:v>45907.6657957523</x:v>
@@ -3341,13 +3346,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C70" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
         <x:v>45912.6433409375</x:v>
@@ -3373,10 +3378,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s"/>
       <x:c r="E71" s="3">
@@ -3403,13 +3408,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D72" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E72" s="3">
         <x:v>45912.2732961458</x:v>
@@ -3435,10 +3440,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C73" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D73" s="2" t="s"/>
       <x:c r="E73" s="3">
